--- a/scripts/fig/paper-data.xlsx
+++ b/scripts/fig/paper-data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10409"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lec/Desktop/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{636EBC89-2C75-D94A-89BC-07ADE8AF2D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="14120" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="s=0.1_vm" sheetId="1" r:id="rId1"/>
@@ -17,217 +23,24 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'s=1_vm'!$A$1:$K$23</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>tc={DFD2EED8-CACF-8B4E-8619-8696ABA0E85E}</author>
-    <author>tc={3696A722-7872-1A40-93FA-7D9669A71173}</author>
-    <author>tc={629F1B96-B3A6-1E4C-8E22-3201E76003A7}</author>
-    <author>tc={8DFC3A9C-FA91-904C-9075-0587B9B69A1C}</author>
-    <author>tc={B027AAF2-E843-2547-9C9A-158FC2DFB7B3}</author>
-  </authors>
-  <commentList>
-    <comment ref="A1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>[线程批注]
-你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
-注释:
-    测试方法：一个query运行十次，取运行时间的中位数</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>[线程批注]
-你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
-注释:
-    MAX_DECRYPT_THREAD = 10，用于解密的线程最多为11</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A2" authorId="2">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>[线程批注]
-你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
-注释:
-    order: 
-select enc_text_add_order('l_linestatus', 'lineitem');
-select enc_text_add_order('l_returnflag', 'lineitem');</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A5" authorId="3">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>[线程批注]
-你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
-注释:
-    order: select enc_text_add_order('o_orderpriority', 'orders');</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A10" authorId="4">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>[线程批注]
-你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
-注释:
-    order: select enc_text_add_order('n_name', 'nation'); 在加入了Q1的order的基础上进行的测试</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>tc={DAEE3655-B3FE-A842-B713-064510ECDC0A}</author>
-    <author>tc={806B5DDD-62C4-CC4F-8B68-B27AE0F734F3}</author>
-    <author>tc={BF790BDE-9DF2-0548-BCC1-4C5AE384E975}</author>
-    <author>tc={85F3B699-5708-C443-89AE-A69C292CDBC2}</author>
-    <author>tc={BDB7FD23-B58A-9F4B-8F58-2F1061F1EAE0}</author>
-  </authors>
-  <commentList>
-    <comment ref="A1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>[线程批注]
-你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
-注释:
-    测试方法：一个query运行十次，取运行时间的中位数</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>[线程批注]
-你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
-注释:
-    MAX_DECRYPT_THREAD = 10，用于解密的线程最多为11</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G1" authorId="2">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>[线程批注]
-你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
-注释:
-    使用了parallel优化，加入了Q1和Q9的order</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J1" authorId="3">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>[线程批注]
-你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
-注释:
-    使用了parallel优化，加入了Q1和Q9的order</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M1" authorId="4">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>[线程批注]
-你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
-注释:
-    average: 5.88%</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>tc={DAEE3655-B3FE-A842-B713-064510ECDC0A}</author>
-  </authors>
-  <commentList>
-    <comment ref="A1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>[线程批注]
-你的Excel版本可读取此线程批注; 但如果在更新版本的Excel中打开文件，则对批注所作的任何改动都将被删除。了解详细信息: https://go.microsoft.com/fwlink/?linkid=870924
-注释:
-    测试方法：一个query运行十次，取运行时间的中位数</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
   <si>
     <t>Query</t>
   </si>
@@ -321,18 +134,24 @@
   <si>
     <t>s=0.1, 插入Q4相关的order后数据库大小为656MB</t>
   </si>
+  <si>
+    <t>Vanilla (w/o encryption)</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>UDF-based replay</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Log-based replay</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -361,17 +180,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -379,339 +190,20 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -719,253 +211,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -977,62 +227,19 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1290,30 +497,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView zoomScale="139" zoomScaleNormal="139" workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83035714285714" defaultRowHeight="12.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="16.3303571428571" customWidth="1"/>
-    <col min="4" max="4" width="13.1607142857143" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
-    <col min="6" max="6" width="15.6607142857143" customWidth="1"/>
-    <col min="7" max="7" width="20.1607142857143" customWidth="1"/>
-    <col min="8" max="8" width="17.6607142857143" customWidth="1"/>
-    <col min="9" max="9" width="12.6607142857143" customWidth="1"/>
-    <col min="10" max="10" width="10.1607142857143" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="20.1640625" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" customWidth="1"/>
+    <col min="10" max="10" width="10.1640625" customWidth="1"/>
     <col min="16" max="16" width="16.5" customWidth="1"/>
-    <col min="17" max="17" width="8.83035714285714" customWidth="1"/>
+    <col min="17" max="17" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -1368,7 +575,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>929.398</v>
+        <v>929.39800000000002</v>
       </c>
       <c r="C2">
         <v>61186.9</v>
@@ -1377,7 +584,7 @@
         <v>45607.7</v>
       </c>
       <c r="E2">
-        <v>38440.2</v>
+        <v>38440.199999999997</v>
       </c>
       <c r="F2">
         <v>28767.9</v>
@@ -1389,7 +596,7 @@
         <v>51602.7</v>
       </c>
       <c r="I2">
-        <v>32773.2</v>
+        <v>32773.199999999997</v>
       </c>
       <c r="J2" s="6">
         <v>63947.7</v>
@@ -1399,19 +606,19 @@
       </c>
       <c r="M2" s="5">
         <f>1-D2/C2</f>
-        <v>0.254616592767406</v>
+        <v>0.25461659276740611</v>
       </c>
       <c r="N2" s="5">
         <f>1-I2/C2</f>
-        <v>0.464375544438434</v>
+        <v>0.46437554443843376</v>
       </c>
       <c r="O2" s="5">
         <f>1-H2/C2</f>
-        <v>0.156638103907863</v>
+        <v>0.1566381039078627</v>
       </c>
       <c r="P2" s="5">
         <f>J2/C2-1</f>
-        <v>0.0451207693150004</v>
+        <v>4.512076931500042E-2</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1448,14 +655,14 @@
         <v>158.476</v>
       </c>
       <c r="J3" s="6">
-        <v>163.139</v>
+        <v>163.13900000000001</v>
       </c>
       <c r="K3" s="6">
-        <v>44.114</v>
+        <v>44.113999999999997</v>
       </c>
       <c r="M3" s="5">
         <f t="shared" ref="M3:M23" si="2">1-D3/C3</f>
-        <v>0.307459804639188</v>
+        <v>0.30745980463918821</v>
       </c>
       <c r="N3" s="5">
         <f>1-I3/C3</f>
@@ -1467,7 +674,7 @@
       </c>
       <c r="P3" s="5">
         <f t="shared" ref="P3:P23" si="4">J3/C3-1</f>
-        <v>0.0294240137307857</v>
+        <v>2.9424013730785736E-2</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1507,11 +714,11 @@
         <v>1466.8</v>
       </c>
       <c r="K4" s="6">
-        <v>282.543</v>
+        <v>282.54300000000001</v>
       </c>
       <c r="M4" s="5">
         <f t="shared" si="2"/>
-        <v>0.0774349800873068</v>
+        <v>7.743498008730676E-2</v>
       </c>
       <c r="N4" s="5">
         <f t="shared" ref="N4:N23" si="5">1-I4/C4</f>
@@ -1523,7 +730,7 @@
       </c>
       <c r="P4" s="5">
         <f t="shared" si="4"/>
-        <v>0.0797759177874457</v>
+        <v>7.9775917787445749E-2</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1531,17 +738,17 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>56.334</v>
+        <v>56.334000000000003</v>
       </c>
       <c r="C5">
         <v>214.816</v>
       </c>
       <c r="D5">
-        <v>185.329</v>
+        <v>185.32900000000001</v>
       </c>
       <c r="E5" s="3">
         <f>D5</f>
-        <v>185.329</v>
+        <v>185.32900000000001</v>
       </c>
       <c r="F5">
         <v>139.21</v>
@@ -1557,18 +764,18 @@
         <v>193.65</v>
       </c>
       <c r="J5" s="6">
-        <v>222.735</v>
+        <v>222.73500000000001</v>
       </c>
       <c r="K5" s="6">
-        <v>65.0165</v>
+        <v>65.016499999999994</v>
       </c>
       <c r="M5" s="5">
         <f t="shared" si="2"/>
-        <v>0.137266311634143</v>
+        <v>0.13726631163414271</v>
       </c>
       <c r="N5" s="5">
         <f t="shared" si="5"/>
-        <v>0.098530835691941</v>
+        <v>9.8530835691940988E-2</v>
       </c>
       <c r="O5" s="5">
         <f t="shared" si="3"/>
@@ -1576,7 +783,7 @@
       </c>
       <c r="P5" s="5">
         <f t="shared" si="4"/>
-        <v>0.0368641069566513</v>
+        <v>3.6864106956651321E-2</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1587,30 +794,30 @@
         <v>97.58</v>
       </c>
       <c r="C6">
-        <v>330.134</v>
+        <v>330.13400000000001</v>
       </c>
       <c r="D6">
-        <v>323.794</v>
+        <v>323.79399999999998</v>
       </c>
       <c r="E6" s="3">
         <f>D6</f>
-        <v>323.794</v>
+        <v>323.79399999999998</v>
       </c>
       <c r="F6" s="3">
         <f t="shared" ref="F6:G9" si="6">E6</f>
-        <v>323.794</v>
+        <v>323.79399999999998</v>
       </c>
       <c r="G6" s="3">
         <f t="shared" si="6"/>
-        <v>323.794</v>
+        <v>323.79399999999998</v>
       </c>
       <c r="H6" s="3">
         <f t="shared" si="1"/>
-        <v>330.134</v>
+        <v>330.13400000000001</v>
       </c>
       <c r="I6" s="3">
         <f>C6</f>
-        <v>330.134</v>
+        <v>330.13400000000001</v>
       </c>
       <c r="J6" s="6">
         <v>351.916</v>
@@ -1620,7 +827,7 @@
       </c>
       <c r="M6" s="5">
         <f t="shared" si="2"/>
-        <v>0.0192043230930472</v>
+        <v>1.9204323093047204E-2</v>
       </c>
       <c r="N6" s="5">
         <f t="shared" si="5"/>
@@ -1632,7 +839,7 @@
       </c>
       <c r="P6" s="5">
         <f t="shared" si="4"/>
-        <v>0.0659792690240932</v>
+        <v>6.5979269024093234E-2</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1640,7 +847,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>88.927</v>
+        <v>88.927000000000007</v>
       </c>
       <c r="C7">
         <v>1764.76</v>
@@ -1672,11 +879,11 @@
         <v>1863.31</v>
       </c>
       <c r="K7" s="6">
-        <v>376.566</v>
+        <v>376.56599999999997</v>
       </c>
       <c r="M7" s="5">
         <f t="shared" si="2"/>
-        <v>0.134828531925021</v>
+        <v>0.13482853192502098</v>
       </c>
       <c r="N7" s="5">
         <f t="shared" si="5"/>
@@ -1688,7 +895,7 @@
       </c>
       <c r="P7" s="5">
         <f t="shared" si="4"/>
-        <v>0.0558432874725174</v>
+        <v>5.5843287472517433E-2</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1699,7 +906,7 @@
         <v>126.191</v>
       </c>
       <c r="C8">
-        <v>820.171</v>
+        <v>820.17100000000005</v>
       </c>
       <c r="D8">
         <v>806.803</v>
@@ -1718,21 +925,21 @@
       </c>
       <c r="H8" s="3">
         <f t="shared" si="1"/>
-        <v>820.171</v>
+        <v>820.17100000000005</v>
       </c>
       <c r="I8" s="3">
         <f>C8</f>
-        <v>820.171</v>
+        <v>820.17100000000005</v>
       </c>
       <c r="J8" s="6">
-        <v>860.407</v>
+        <v>860.40700000000004</v>
       </c>
       <c r="K8" s="6">
         <v>433.346</v>
       </c>
       <c r="M8" s="5">
         <f t="shared" si="2"/>
-        <v>0.0162990400782277</v>
+        <v>1.6299040078227689E-2</v>
       </c>
       <c r="N8" s="5">
         <f t="shared" si="5"/>
@@ -1744,7 +951,7 @@
       </c>
       <c r="P8" s="5">
         <f t="shared" si="4"/>
-        <v>0.0490580622821339</v>
+        <v>4.9058062282133941E-2</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1752,43 +959,43 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>233.722</v>
+        <v>233.72200000000001</v>
       </c>
       <c r="C9">
-        <v>786.991</v>
+        <v>786.99099999999999</v>
       </c>
       <c r="D9">
-        <v>697.902</v>
+        <v>697.90200000000004</v>
       </c>
       <c r="E9" s="3">
         <f>D9</f>
-        <v>697.902</v>
+        <v>697.90200000000004</v>
       </c>
       <c r="F9" s="3">
         <f t="shared" si="6"/>
-        <v>697.902</v>
+        <v>697.90200000000004</v>
       </c>
       <c r="G9" s="3">
         <f t="shared" si="6"/>
-        <v>697.902</v>
+        <v>697.90200000000004</v>
       </c>
       <c r="H9" s="3">
         <f t="shared" si="1"/>
-        <v>786.991</v>
+        <v>786.99099999999999</v>
       </c>
       <c r="I9" s="3">
         <f>C9</f>
-        <v>786.991</v>
+        <v>786.99099999999999</v>
       </c>
       <c r="J9" s="6">
-        <v>827.676</v>
+        <v>827.67600000000004</v>
       </c>
       <c r="K9" s="6">
-        <v>407.445</v>
+        <v>407.44499999999999</v>
       </c>
       <c r="M9" s="5">
         <f t="shared" si="2"/>
-        <v>0.113202056948555</v>
+        <v>0.11320205694855456</v>
       </c>
       <c r="N9" s="5">
         <f t="shared" si="5"/>
@@ -1800,7 +1007,7 @@
       </c>
       <c r="P9" s="5">
         <f t="shared" si="4"/>
-        <v>0.0516969063178614</v>
+        <v>5.1696906317861391E-2</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1808,10 +1015,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>591.93</v>
+        <v>591.92999999999995</v>
       </c>
       <c r="C10">
-        <v>10025.8</v>
+        <v>10025.799999999999</v>
       </c>
       <c r="D10">
         <v>7887.51</v>
@@ -1839,19 +1046,19 @@
       </c>
       <c r="M10" s="5">
         <f t="shared" si="2"/>
-        <v>0.213278740848611</v>
+        <v>0.21327874084861054</v>
       </c>
       <c r="N10" s="5">
         <f t="shared" si="5"/>
-        <v>0.733256498234555</v>
+        <v>0.73325649823455485</v>
       </c>
       <c r="O10" s="5">
         <f t="shared" si="3"/>
-        <v>0.0986734225697699</v>
+        <v>9.8673422569769853E-2</v>
       </c>
       <c r="P10" s="5">
         <f t="shared" si="4"/>
-        <v>0.0711564164455705</v>
+        <v>7.115641644557047E-2</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1859,25 +1066,25 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>263.426</v>
+        <v>263.42599999999999</v>
       </c>
       <c r="C11">
         <v>1033.8</v>
       </c>
       <c r="D11">
-        <v>827.081</v>
+        <v>827.08100000000002</v>
       </c>
       <c r="E11" s="3">
         <f t="shared" ref="E11:G23" si="7">D11</f>
-        <v>827.081</v>
+        <v>827.08100000000002</v>
       </c>
       <c r="F11" s="3">
         <f t="shared" si="7"/>
-        <v>827.081</v>
+        <v>827.08100000000002</v>
       </c>
       <c r="G11" s="3">
         <f t="shared" si="7"/>
-        <v>827.081</v>
+        <v>827.08100000000002</v>
       </c>
       <c r="H11" s="3">
         <f t="shared" ref="H11:H23" si="8">C11</f>
@@ -1891,11 +1098,11 @@
         <v>1079.46</v>
       </c>
       <c r="K11" s="6">
-        <v>298.082</v>
+        <v>298.08199999999999</v>
       </c>
       <c r="M11" s="5">
         <f t="shared" si="2"/>
-        <v>0.199960340491391</v>
+        <v>0.19996034049139089</v>
       </c>
       <c r="N11" s="5">
         <f t="shared" si="5"/>
@@ -1907,7 +1114,7 @@
       </c>
       <c r="P11" s="5">
         <f t="shared" si="4"/>
-        <v>0.0441671503192107</v>
+        <v>4.4167150319210702E-2</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1915,7 +1122,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>31.737</v>
+        <v>31.736999999999998</v>
       </c>
       <c r="C12">
         <v>182.42</v>
@@ -1944,14 +1151,14 @@
         <v>182.42</v>
       </c>
       <c r="J12" s="6">
-        <v>187.145</v>
+        <v>187.14500000000001</v>
       </c>
       <c r="K12" s="6">
-        <v>77.092</v>
+        <v>77.091999999999999</v>
       </c>
       <c r="M12" s="5">
         <f t="shared" si="2"/>
-        <v>0.200361802433944</v>
+        <v>0.20036180243394353</v>
       </c>
       <c r="N12" s="5">
         <f t="shared" si="5"/>
@@ -1963,7 +1170,7 @@
       </c>
       <c r="P12" s="5">
         <f t="shared" si="4"/>
-        <v>0.0259017651573294</v>
+        <v>2.5901765157329448E-2</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -2000,14 +1207,14 @@
         <v>1905.06</v>
       </c>
       <c r="J13" s="6">
-        <v>2228.28</v>
+        <v>2228.2800000000002</v>
       </c>
       <c r="K13" s="6">
         <v>459.596</v>
       </c>
       <c r="M13" s="5">
         <f t="shared" si="2"/>
-        <v>0.0746013248926543</v>
+        <v>7.4601324892654253E-2</v>
       </c>
       <c r="N13" s="5">
         <f t="shared" si="5"/>
@@ -2019,7 +1226,7 @@
       </c>
       <c r="P13" s="5">
         <f t="shared" si="4"/>
-        <v>0.169663947592202</v>
+        <v>0.16966394759220194</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -2030,7 +1237,7 @@
         <v>161.821</v>
       </c>
       <c r="C14">
-        <v>1247.85</v>
+        <v>1247.8499999999999</v>
       </c>
       <c r="D14">
         <v>960.255</v>
@@ -2049,11 +1256,11 @@
       </c>
       <c r="H14" s="3">
         <f t="shared" si="8"/>
-        <v>1247.85</v>
+        <v>1247.8499999999999</v>
       </c>
       <c r="I14" s="3">
         <f t="shared" si="9"/>
-        <v>1247.85</v>
+        <v>1247.8499999999999</v>
       </c>
       <c r="J14" s="6">
         <v>1408.23</v>
@@ -2063,7 +1270,7 @@
       </c>
       <c r="M14" s="5">
         <f t="shared" si="2"/>
-        <v>0.230472412549585</v>
+        <v>0.23047241254958528</v>
       </c>
       <c r="N14" s="5">
         <f t="shared" si="5"/>
@@ -2075,7 +1282,7 @@
       </c>
       <c r="P14" s="5">
         <f t="shared" si="4"/>
-        <v>0.128525063108547</v>
+        <v>0.12852506310854683</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -2083,10 +1290,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>41.854</v>
+        <v>41.853999999999999</v>
       </c>
       <c r="C15">
-        <v>255.521</v>
+        <v>255.52099999999999</v>
       </c>
       <c r="D15">
         <v>238.17</v>
@@ -2105,21 +1312,21 @@
       </c>
       <c r="H15" s="3">
         <f t="shared" si="8"/>
-        <v>255.521</v>
+        <v>255.52099999999999</v>
       </c>
       <c r="I15" s="3">
         <f t="shared" si="9"/>
-        <v>255.521</v>
+        <v>255.52099999999999</v>
       </c>
       <c r="J15" s="6">
-        <v>286.991</v>
+        <v>286.99099999999999</v>
       </c>
       <c r="K15" s="6">
-        <v>85.311</v>
+        <v>85.311000000000007</v>
       </c>
       <c r="M15" s="5">
         <f t="shared" si="2"/>
-        <v>0.0679043992470286</v>
+        <v>6.7904399247028624E-2</v>
       </c>
       <c r="N15" s="5">
         <f t="shared" si="5"/>
@@ -2131,7 +1338,7 @@
       </c>
       <c r="P15" s="5">
         <f t="shared" si="4"/>
-        <v>0.123160131652584</v>
+        <v>0.12316013165258433</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -2139,7 +1346,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>48.347</v>
+        <v>48.347000000000001</v>
       </c>
       <c r="C16">
         <v>548.197</v>
@@ -2168,14 +1375,14 @@
         <v>548.197</v>
       </c>
       <c r="J16" s="6">
-        <v>620.403</v>
+        <v>620.40300000000002</v>
       </c>
       <c r="K16" s="6">
-        <v>147.176</v>
+        <v>147.17599999999999</v>
       </c>
       <c r="M16" s="5">
         <f t="shared" si="2"/>
-        <v>0.0491027860422439</v>
+        <v>4.910278604224394E-2</v>
       </c>
       <c r="N16" s="5">
         <f t="shared" si="5"/>
@@ -2187,7 +1394,7 @@
       </c>
       <c r="P16" s="5">
         <f t="shared" si="4"/>
-        <v>0.13171542347003</v>
+        <v>0.13171542347002996</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -2195,7 +1402,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>71.052</v>
+        <v>71.052000000000007</v>
       </c>
       <c r="C17">
         <v>2026.92</v>
@@ -2224,14 +1431,14 @@
         <v>2026.92</v>
       </c>
       <c r="J17" s="6">
-        <v>2318.78</v>
+        <v>2318.7800000000002</v>
       </c>
       <c r="K17" s="6">
         <v>259.125</v>
       </c>
       <c r="M17" s="5">
         <f t="shared" si="2"/>
-        <v>0.276291121504549</v>
+        <v>0.27629112150454871</v>
       </c>
       <c r="N17" s="5">
         <f t="shared" si="5"/>
@@ -2243,7 +1450,7 @@
       </c>
       <c r="P17" s="5">
         <f t="shared" si="4"/>
-        <v>0.143991869437373</v>
+        <v>0.14399186943737297</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -2251,7 +1458,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>160.242</v>
+        <v>160.24199999999999</v>
       </c>
       <c r="C18">
         <v>434.43</v>
@@ -2280,14 +1487,14 @@
         <v>434.43</v>
       </c>
       <c r="J18" s="6">
-        <v>435.571</v>
+        <v>435.57100000000003</v>
       </c>
       <c r="K18" s="6">
         <v>337.303</v>
       </c>
       <c r="M18" s="5">
         <f t="shared" si="2"/>
-        <v>0.0882996109845084</v>
+        <v>8.8299610984508448E-2</v>
       </c>
       <c r="N18" s="5">
         <f t="shared" si="5"/>
@@ -2299,7 +1506,7 @@
       </c>
       <c r="P18" s="5">
         <f t="shared" si="4"/>
-        <v>0.00262643003475826</v>
+        <v>2.6264300347582648E-3</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -2307,25 +1514,25 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>371.676</v>
+        <v>371.67599999999999</v>
       </c>
       <c r="C19">
         <v>2747.4</v>
       </c>
       <c r="D19">
-        <v>2504.99</v>
+        <v>2504.9899999999998</v>
       </c>
       <c r="E19" s="3">
         <f t="shared" si="7"/>
-        <v>2504.99</v>
+        <v>2504.9899999999998</v>
       </c>
       <c r="F19" s="3">
         <f t="shared" si="7"/>
-        <v>2504.99</v>
+        <v>2504.9899999999998</v>
       </c>
       <c r="G19" s="3">
         <f t="shared" si="7"/>
-        <v>2504.99</v>
+        <v>2504.9899999999998</v>
       </c>
       <c r="H19" s="3">
         <f t="shared" si="8"/>
@@ -2343,7 +1550,7 @@
       </c>
       <c r="M19" s="5">
         <f t="shared" si="2"/>
-        <v>0.0882325107374246</v>
+        <v>8.8232510737424552E-2</v>
       </c>
       <c r="N19" s="5">
         <f t="shared" si="5"/>
@@ -2355,7 +1562,7 @@
       </c>
       <c r="P19" s="5">
         <f t="shared" si="4"/>
-        <v>0.00344689524641462</v>
+        <v>3.4468952464146163E-3</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -2363,10 +1570,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>19.124</v>
+        <v>19.123999999999999</v>
       </c>
       <c r="C20">
-        <v>441.103</v>
+        <v>441.10300000000001</v>
       </c>
       <c r="D20">
         <v>289.5</v>
@@ -2385,21 +1592,21 @@
       </c>
       <c r="H20" s="3">
         <f t="shared" si="8"/>
-        <v>441.103</v>
+        <v>441.10300000000001</v>
       </c>
       <c r="I20" s="3">
         <f t="shared" si="9"/>
-        <v>441.103</v>
+        <v>441.10300000000001</v>
       </c>
       <c r="J20" s="6">
         <v>461.44</v>
       </c>
       <c r="K20" s="6">
-        <v>65.2185</v>
+        <v>65.218500000000006</v>
       </c>
       <c r="M20" s="5">
         <f t="shared" si="2"/>
-        <v>0.34369070262501</v>
+        <v>0.34369070262501045</v>
       </c>
       <c r="N20" s="5">
         <f t="shared" si="5"/>
@@ -2411,7 +1618,7 @@
       </c>
       <c r="P20" s="5">
         <f t="shared" si="4"/>
-        <v>0.0461048779990161</v>
+        <v>4.6104877999016081E-2</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -2422,7 +1629,7 @@
         <v>58.445</v>
       </c>
       <c r="C21">
-        <v>334.368</v>
+        <v>334.36799999999999</v>
       </c>
       <c r="D21">
         <v>329.512</v>
@@ -2441,21 +1648,21 @@
       </c>
       <c r="H21" s="3">
         <f t="shared" si="8"/>
-        <v>334.368</v>
+        <v>334.36799999999999</v>
       </c>
       <c r="I21" s="3">
         <f t="shared" si="9"/>
-        <v>334.368</v>
+        <v>334.36799999999999</v>
       </c>
       <c r="J21" s="6">
-        <v>355.778</v>
+        <v>355.77800000000002</v>
       </c>
       <c r="K21" s="6">
         <v>189.875</v>
       </c>
       <c r="M21" s="5">
         <f t="shared" si="2"/>
-        <v>0.0145229208536702</v>
+        <v>1.452292085367024E-2</v>
       </c>
       <c r="N21" s="5">
         <f t="shared" si="5"/>
@@ -2467,7 +1674,7 @@
       </c>
       <c r="P21" s="5">
         <f t="shared" si="4"/>
-        <v>0.0640312470092832</v>
+        <v>6.4031247009283199E-2</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -2475,25 +1682,25 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>126.109</v>
+        <v>126.10899999999999</v>
       </c>
       <c r="C22">
         <v>499.459</v>
       </c>
       <c r="D22">
-        <v>486.269</v>
+        <v>486.26900000000001</v>
       </c>
       <c r="E22" s="3">
         <f t="shared" si="7"/>
-        <v>486.269</v>
+        <v>486.26900000000001</v>
       </c>
       <c r="F22" s="3">
         <f t="shared" si="7"/>
-        <v>486.269</v>
+        <v>486.26900000000001</v>
       </c>
       <c r="G22" s="3">
         <f t="shared" si="7"/>
-        <v>486.269</v>
+        <v>486.26900000000001</v>
       </c>
       <c r="H22" s="3">
         <f t="shared" si="8"/>
@@ -2504,14 +1711,14 @@
         <v>499.459</v>
       </c>
       <c r="J22" s="6">
-        <v>524.69</v>
+        <v>524.69000000000005</v>
       </c>
       <c r="K22" s="6">
-        <v>280.383</v>
+        <v>280.38299999999998</v>
       </c>
       <c r="M22" s="5">
         <f t="shared" si="2"/>
-        <v>0.0264085740771515</v>
+        <v>2.640857407715147E-2</v>
       </c>
       <c r="N22" s="5">
         <f t="shared" si="5"/>
@@ -2523,7 +1730,7 @@
       </c>
       <c r="P22" s="5">
         <f t="shared" si="4"/>
-        <v>0.0505166590250652</v>
+        <v>5.0516659025065191E-2</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -2531,43 +1738,43 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>30.015</v>
+        <v>30.015000000000001</v>
       </c>
       <c r="C23">
-        <v>952.708</v>
+        <v>952.70799999999997</v>
       </c>
       <c r="D23">
-        <v>698.314</v>
+        <v>698.31399999999996</v>
       </c>
       <c r="E23" s="3">
         <f t="shared" si="7"/>
-        <v>698.314</v>
+        <v>698.31399999999996</v>
       </c>
       <c r="F23" s="3">
         <f t="shared" si="7"/>
-        <v>698.314</v>
+        <v>698.31399999999996</v>
       </c>
       <c r="G23" s="3">
         <f t="shared" si="7"/>
-        <v>698.314</v>
+        <v>698.31399999999996</v>
       </c>
       <c r="H23" s="3">
         <f t="shared" si="8"/>
-        <v>952.708</v>
+        <v>952.70799999999997</v>
       </c>
       <c r="I23" s="3">
         <f t="shared" si="9"/>
-        <v>952.708</v>
+        <v>952.70799999999997</v>
       </c>
       <c r="J23" s="6">
-        <v>988.438</v>
+        <v>988.43799999999999</v>
       </c>
       <c r="K23" s="6">
         <v>197.517</v>
       </c>
       <c r="M23" s="5">
         <f t="shared" si="2"/>
-        <v>0.267022004643605</v>
+        <v>0.26702200464360537</v>
       </c>
       <c r="N23" s="5">
         <f t="shared" si="5"/>
@@ -2579,51 +1786,49 @@
       </c>
       <c r="P23" s="5">
         <f t="shared" si="4"/>
-        <v>0.0375036212564606</v>
-      </c>
-    </row>
-    <row r="24" spans="13:15">
+        <v>3.7503621256460562E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
     </row>
-    <row r="25" spans="13:15">
+    <row r="25" spans="1:16">
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
     </row>
-    <row r="26" spans="13:15">
+    <row r="26" spans="1:16">
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
     </row>
   </sheetData>
-  <sortState ref="A2:I23">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I23">
     <sortCondition ref="A2:A23"/>
   </sortState>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="K1" sqref="K1:K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="21.6607142857143" customWidth="1"/>
-    <col min="4" max="4" width="14.6607142857143" customWidth="1"/>
-    <col min="5" max="5" width="18.8303571428571" customWidth="1"/>
-    <col min="6" max="6" width="15.3303571428571" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.83203125" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" customWidth="1"/>
     <col min="7" max="7" width="20.5" customWidth="1"/>
-    <col min="8" max="8" width="16.3303571428571" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2703,35 +1908,35 @@
         <v>357608</v>
       </c>
       <c r="J2">
-        <v>813531.584</v>
+        <v>813531.58400000003</v>
       </c>
       <c r="K2">
-        <v>181411.034</v>
+        <v>181411.03400000001</v>
       </c>
       <c r="L2" s="5"/>
       <c r="M2" s="5">
         <f>J2/C2-1</f>
-        <v>0.0829688087805593</v>
+        <v>8.2968808780559344E-2</v>
       </c>
       <c r="N2">
         <f>C2/B2</f>
-        <v>79.4695506276487</v>
+        <v>79.469550627648701</v>
       </c>
       <c r="O2" s="5">
         <f>1-D2/C2</f>
-        <v>0.252090973835371</v>
+        <v>0.25209097383537116</v>
       </c>
       <c r="P2">
         <f>1-I2/C2</f>
-        <v>0.523954180283678</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.52395418028367757</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>624.568</v>
+        <v>624.56799999999998</v>
       </c>
       <c r="C3">
         <v>1953.06</v>
@@ -2763,23 +1968,23 @@
         <v>2033.94</v>
       </c>
       <c r="K3">
-        <v>768.167</v>
+        <v>768.16700000000003</v>
       </c>
       <c r="L3" s="5"/>
       <c r="M3" s="5">
         <f t="shared" ref="M3:M23" si="2">J3/C3-1</f>
-        <v>0.041411938189303</v>
+        <v>4.1411938189302999E-2</v>
       </c>
       <c r="N3">
         <f t="shared" ref="N3:N23" si="3">C3/B3</f>
-        <v>3.12705742209015</v>
+        <v>3.1270574220901488</v>
       </c>
       <c r="O3" s="5">
         <f t="shared" ref="O3:O23" si="4">1-D3/C3</f>
-        <v>0.240223034622592</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.2402230346225922</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2821,15 +2026,15 @@
       <c r="L4" s="5"/>
       <c r="M4" s="5">
         <f t="shared" si="2"/>
-        <v>0.0555120049393336</v>
+        <v>5.5512004939333615E-2</v>
       </c>
       <c r="N4">
         <f t="shared" si="3"/>
-        <v>7.99034389481386</v>
+        <v>7.9903438948138623</v>
       </c>
       <c r="O4" s="5">
         <f t="shared" si="4"/>
-        <v>0.0600212280348805</v>
+        <v>6.0021228034880525E-2</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -2837,17 +2042,17 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>772.001</v>
+        <v>772.00099999999998</v>
       </c>
       <c r="C5">
         <v>2912.35</v>
       </c>
       <c r="D5">
-        <v>2541.3</v>
+        <v>2541.3000000000002</v>
       </c>
       <c r="E5" s="3">
         <f t="shared" si="0"/>
-        <v>2541.3</v>
+        <v>2541.3000000000002</v>
       </c>
       <c r="F5" s="2">
         <v>1911.94</v>
@@ -2871,27 +2076,27 @@
       <c r="L5" s="5"/>
       <c r="M5" s="5">
         <f t="shared" si="2"/>
-        <v>0.0392912939722219</v>
+        <v>3.9291293972221863E-2</v>
       </c>
       <c r="N5">
         <f t="shared" si="3"/>
-        <v>3.7724692066461</v>
+        <v>3.7724692066461052</v>
       </c>
       <c r="O5" s="5">
         <f t="shared" si="4"/>
-        <v>0.127405703298024</v>
+        <v>0.12740570329802381</v>
       </c>
       <c r="P5">
         <f>1-I5/C5</f>
-        <v>0.348241111130187</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.34824111113018696</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2488.05</v>
+        <v>2488.0500000000002</v>
       </c>
       <c r="C6">
         <v>5729.27</v>
@@ -2904,11 +2109,11 @@
         <v>5635.68</v>
       </c>
       <c r="F6" s="4">
-        <f>E6</f>
+        <f t="shared" ref="F6:G9" si="5">E6</f>
         <v>5635.68</v>
       </c>
       <c r="G6" s="3">
-        <f>F6</f>
+        <f t="shared" si="5"/>
         <v>5635.68</v>
       </c>
       <c r="H6" s="3">
@@ -2928,18 +2133,18 @@
       <c r="L6" s="5"/>
       <c r="M6" s="5">
         <f t="shared" si="2"/>
-        <v>0.0241234921726501</v>
+        <v>2.4123492172650085E-2</v>
       </c>
       <c r="N6">
         <f t="shared" si="3"/>
-        <v>2.30271497759289</v>
+        <v>2.3027149775928941</v>
       </c>
       <c r="O6" s="5">
         <f t="shared" si="4"/>
-        <v>0.0163354144594338</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>1.6335414459433761E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2957,11 +2162,11 @@
         <v>49893.9</v>
       </c>
       <c r="F7" s="4">
-        <f>E7</f>
+        <f t="shared" si="5"/>
         <v>49893.9</v>
       </c>
       <c r="G7" s="3">
-        <f>F7</f>
+        <f t="shared" si="5"/>
         <v>49893.9</v>
       </c>
       <c r="H7" s="3">
@@ -2981,18 +2186,18 @@
       <c r="L7" s="5"/>
       <c r="M7" s="5">
         <f t="shared" si="2"/>
-        <v>0.0946745445632078</v>
+        <v>9.4674544563207785E-2</v>
       </c>
       <c r="N7">
         <f t="shared" si="3"/>
-        <v>29.4686671424179</v>
+        <v>29.468667142417864</v>
       </c>
       <c r="O7" s="5">
         <f t="shared" si="4"/>
-        <v>0.0176799844069625</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>1.7679984406962501E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3010,11 +2215,11 @@
         <v>6922.44</v>
       </c>
       <c r="F8" s="4">
-        <f>E8</f>
+        <f t="shared" si="5"/>
         <v>6922.44</v>
       </c>
       <c r="G8" s="3">
-        <f>F8</f>
+        <f t="shared" si="5"/>
         <v>6922.44</v>
       </c>
       <c r="H8" s="3">
@@ -3034,18 +2239,18 @@
       <c r="L8" s="5"/>
       <c r="M8" s="5">
         <f t="shared" si="2"/>
-        <v>0.0889476740434867</v>
+        <v>8.8947674043486691E-2</v>
       </c>
       <c r="N8">
         <f t="shared" si="3"/>
-        <v>1.99507135521999</v>
+        <v>1.995071355219987</v>
       </c>
       <c r="O8" s="5">
         <f t="shared" si="4"/>
-        <v>0.00747144977095304</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>7.4714497709530425E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3063,11 +2268,11 @@
         <v>6734.23</v>
       </c>
       <c r="F9" s="4">
-        <f>E9</f>
+        <f t="shared" si="5"/>
         <v>6734.23</v>
       </c>
       <c r="G9" s="3">
-        <f>F9</f>
+        <f t="shared" si="5"/>
         <v>6734.23</v>
       </c>
       <c r="H9" s="3">
@@ -3082,20 +2287,20 @@
         <v>7921.56</v>
       </c>
       <c r="K9">
-        <v>4536.77</v>
+        <v>4536.7700000000004</v>
       </c>
       <c r="L9" s="5"/>
       <c r="M9" s="5">
         <f t="shared" si="2"/>
-        <v>0.0696427124686056</v>
+        <v>6.964271246860565E-2</v>
       </c>
       <c r="N9">
         <f t="shared" si="3"/>
-        <v>1.33390249964877</v>
+        <v>1.3339024996487741</v>
       </c>
       <c r="O9" s="5">
         <f t="shared" si="4"/>
-        <v>0.0906816279132573</v>
+        <v>9.068162791325729E-2</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -3135,22 +2340,22 @@
       <c r="L10" s="5"/>
       <c r="M10" s="5">
         <f t="shared" si="2"/>
-        <v>0.0392175213085297</v>
+        <v>3.9217521308529735E-2</v>
       </c>
       <c r="N10">
         <f t="shared" si="3"/>
-        <v>4.57153400218196</v>
+        <v>4.5715340021819584</v>
       </c>
       <c r="O10" s="5">
         <f t="shared" si="4"/>
-        <v>0.167712108485743</v>
+        <v>0.16771210848574314</v>
       </c>
       <c r="P10">
         <f>1-I10/C10</f>
-        <v>0.293141730091177</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.29314173009117683</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3164,23 +2369,23 @@
         <v>11472.7</v>
       </c>
       <c r="E11" s="3">
-        <f t="shared" ref="E11:E23" si="5">D11</f>
+        <f t="shared" ref="E11:E23" si="6">D11</f>
         <v>11472.7</v>
       </c>
       <c r="F11" s="4">
-        <f t="shared" ref="F11:F23" si="6">E11</f>
+        <f t="shared" ref="F11:F23" si="7">E11</f>
         <v>11472.7</v>
       </c>
       <c r="G11" s="3">
-        <f t="shared" ref="G11:G23" si="7">F11</f>
+        <f t="shared" ref="G11:G23" si="8">F11</f>
         <v>11472.7</v>
       </c>
       <c r="H11" s="3">
-        <f t="shared" ref="H11:H23" si="8">C11</f>
+        <f t="shared" ref="H11:H23" si="9">C11</f>
         <v>15646.7</v>
       </c>
       <c r="I11" s="3">
-        <f t="shared" ref="I11:I23" si="9">C11</f>
+        <f t="shared" ref="I11:I23" si="10">C11</f>
         <v>15646.7</v>
       </c>
       <c r="J11">
@@ -3192,18 +2397,18 @@
       <c r="L11" s="5"/>
       <c r="M11" s="5">
         <f t="shared" si="2"/>
-        <v>0.0656560169236964</v>
+        <v>6.5656016923696381E-2</v>
       </c>
       <c r="N11">
         <f t="shared" si="3"/>
-        <v>11.0493051240043</v>
+        <v>11.049305124004295</v>
       </c>
       <c r="O11" s="5">
         <f t="shared" si="4"/>
-        <v>0.266765516051308</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.26676551605130794</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3217,51 +2422,51 @@
         <v>1477.45</v>
       </c>
       <c r="E12" s="3">
-        <f t="shared" si="5"/>
-        <v>1477.45</v>
-      </c>
-      <c r="F12" s="4">
         <f t="shared" si="6"/>
         <v>1477.45</v>
       </c>
+      <c r="F12" s="4">
+        <f t="shared" si="7"/>
+        <v>1477.45</v>
+      </c>
       <c r="G12" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1477.45</v>
       </c>
       <c r="H12" s="3">
-        <f t="shared" si="8"/>
-        <v>1874.45</v>
-      </c>
-      <c r="I12" s="3">
         <f t="shared" si="9"/>
         <v>1874.45</v>
       </c>
+      <c r="I12" s="3">
+        <f t="shared" si="10"/>
+        <v>1874.45</v>
+      </c>
       <c r="J12">
         <v>1984.03</v>
       </c>
       <c r="K12">
-        <v>523.433</v>
+        <v>523.43299999999999</v>
       </c>
       <c r="L12" s="5"/>
       <c r="M12" s="5">
         <f t="shared" si="2"/>
-        <v>0.0584598148790312</v>
+        <v>5.845981487903118E-2</v>
       </c>
       <c r="N12">
         <f t="shared" si="3"/>
-        <v>12.9928327834308</v>
+        <v>12.992832783430837</v>
       </c>
       <c r="O12" s="5">
         <f t="shared" si="4"/>
-        <v>0.2117954600016</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.21179546000160043</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
-        <v>2343.7</v>
+        <v>2343.6999999999998</v>
       </c>
       <c r="C13">
         <v>67793.8</v>
@@ -3270,27 +2475,27 @@
         <v>50874.1</v>
       </c>
       <c r="E13" s="3">
-        <f t="shared" si="5"/>
-        <v>50874.1</v>
-      </c>
-      <c r="F13" s="4">
         <f t="shared" si="6"/>
         <v>50874.1</v>
       </c>
+      <c r="F13" s="4">
+        <f t="shared" si="7"/>
+        <v>50874.1</v>
+      </c>
       <c r="G13" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>50874.1</v>
       </c>
       <c r="H13" s="3">
-        <f t="shared" si="8"/>
-        <v>67793.8</v>
-      </c>
-      <c r="I13" s="3">
         <f t="shared" si="9"/>
         <v>67793.8</v>
       </c>
+      <c r="I13" s="3">
+        <f t="shared" si="10"/>
+        <v>67793.8</v>
+      </c>
       <c r="J13">
-        <v>73228.1</v>
+        <v>73228.100000000006</v>
       </c>
       <c r="K13">
         <v>10285.1</v>
@@ -3298,18 +2503,18 @@
       <c r="L13" s="5"/>
       <c r="M13" s="5">
         <f t="shared" si="2"/>
-        <v>0.0801592476008131</v>
+        <v>8.0159247600813055E-2</v>
       </c>
       <c r="N13">
         <f t="shared" si="3"/>
-        <v>28.9259717540641</v>
+        <v>28.92597175406409</v>
       </c>
       <c r="O13" s="5">
         <f t="shared" si="4"/>
-        <v>0.249575919921881</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.24957591992188077</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3320,26 +2525,26 @@
         <v>13979</v>
       </c>
       <c r="D14">
-        <v>10432.3</v>
+        <v>10432.299999999999</v>
       </c>
       <c r="E14" s="3">
-        <f t="shared" si="5"/>
-        <v>10432.3</v>
+        <f t="shared" si="6"/>
+        <v>10432.299999999999</v>
       </c>
       <c r="F14" s="4">
-        <f t="shared" si="6"/>
-        <v>10432.3</v>
+        <f t="shared" si="7"/>
+        <v>10432.299999999999</v>
       </c>
       <c r="G14" s="3">
-        <f t="shared" si="7"/>
-        <v>10432.3</v>
+        <f t="shared" si="8"/>
+        <v>10432.299999999999</v>
       </c>
       <c r="H14" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>13979</v>
       </c>
       <c r="I14" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>13979</v>
       </c>
       <c r="J14">
@@ -3351,23 +2556,23 @@
       <c r="L14" s="5"/>
       <c r="M14" s="5">
         <f t="shared" si="2"/>
-        <v>0.0873166893196939</v>
+        <v>8.7316689319693941E-2</v>
       </c>
       <c r="N14">
         <f t="shared" si="3"/>
-        <v>6.0947854900593</v>
+        <v>6.0947854900592953</v>
       </c>
       <c r="O14" s="5">
         <f t="shared" si="4"/>
-        <v>0.253716288718792</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.25371628871879248</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>525.232</v>
+        <v>525.23199999999997</v>
       </c>
       <c r="C15">
         <v>3126.94</v>
@@ -3376,23 +2581,23 @@
         <v>2751.51</v>
       </c>
       <c r="E15" s="3">
-        <f t="shared" si="5"/>
-        <v>2751.51</v>
-      </c>
-      <c r="F15" s="4">
         <f t="shared" si="6"/>
         <v>2751.51</v>
       </c>
+      <c r="F15" s="4">
+        <f t="shared" si="7"/>
+        <v>2751.51</v>
+      </c>
       <c r="G15" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2751.51</v>
       </c>
       <c r="H15" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3126.94</v>
       </c>
       <c r="I15" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3126.94</v>
       </c>
       <c r="J15">
@@ -3404,18 +2609,18 @@
       <c r="L15" s="5"/>
       <c r="M15" s="5">
         <f t="shared" si="2"/>
-        <v>0.039607411718805</v>
+        <v>3.9607411718804997E-2</v>
       </c>
       <c r="N15">
         <f t="shared" si="3"/>
-        <v>5.95344533463308</v>
+        <v>5.9534453346330771</v>
       </c>
       <c r="O15" s="5">
         <f t="shared" si="4"/>
-        <v>0.120063064849341</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.12006306484934148</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3423,49 +2628,49 @@
         <v>1188.69</v>
       </c>
       <c r="C16">
-        <v>10169.3</v>
+        <v>10169.299999999999</v>
       </c>
       <c r="D16">
         <v>9463.82</v>
       </c>
       <c r="E16" s="3">
-        <f t="shared" si="5"/>
-        <v>9463.82</v>
-      </c>
-      <c r="F16" s="4">
         <f t="shared" si="6"/>
         <v>9463.82</v>
       </c>
+      <c r="F16" s="4">
+        <f t="shared" si="7"/>
+        <v>9463.82</v>
+      </c>
       <c r="G16" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9463.82</v>
       </c>
       <c r="H16" s="3">
-        <f t="shared" si="8"/>
-        <v>10169.3</v>
+        <f t="shared" si="9"/>
+        <v>10169.299999999999</v>
       </c>
       <c r="I16" s="3">
-        <f t="shared" si="9"/>
-        <v>10169.3</v>
+        <f t="shared" si="10"/>
+        <v>10169.299999999999</v>
       </c>
       <c r="J16">
         <v>10695.2</v>
       </c>
       <c r="K16">
-        <v>2293.07</v>
+        <v>2293.0700000000002</v>
       </c>
       <c r="L16" s="5"/>
       <c r="M16" s="5">
         <f t="shared" si="2"/>
-        <v>0.0517144739559263</v>
+        <v>5.1714473955926321E-2</v>
       </c>
       <c r="N16">
         <f t="shared" si="3"/>
-        <v>8.55504799401021</v>
+        <v>8.5550479940102111</v>
       </c>
       <c r="O16" s="5">
         <f t="shared" si="4"/>
-        <v>0.069373506534373</v>
+        <v>6.937350653437302E-2</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -3473,7 +2678,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>788.169</v>
+        <v>788.16899999999998</v>
       </c>
       <c r="C17">
         <v>25169.5</v>
@@ -3482,23 +2687,23 @@
         <v>16988.3</v>
       </c>
       <c r="E17" s="3">
-        <f t="shared" si="5"/>
-        <v>16988.3</v>
-      </c>
-      <c r="F17" s="4">
         <f t="shared" si="6"/>
         <v>16988.3</v>
       </c>
+      <c r="F17" s="4">
+        <f t="shared" si="7"/>
+        <v>16988.3</v>
+      </c>
       <c r="G17" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>16988.3</v>
       </c>
       <c r="H17" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>25169.5</v>
       </c>
       <c r="I17" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>25169.5</v>
       </c>
       <c r="J17">
@@ -3510,15 +2715,15 @@
       <c r="L17" s="5"/>
       <c r="M17" s="5">
         <f t="shared" si="2"/>
-        <v>0.0999026599654345</v>
+        <v>9.9902659965434459E-2</v>
       </c>
       <c r="N17">
         <f t="shared" si="3"/>
-        <v>31.9341410281298</v>
+        <v>31.934141028129755</v>
       </c>
       <c r="O17" s="5">
         <f t="shared" si="4"/>
-        <v>0.325044200321818</v>
+        <v>0.32504420032181813</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -3529,30 +2734,30 @@
         <v>1729.13</v>
       </c>
       <c r="C18">
-        <v>4314.94</v>
+        <v>4314.9399999999996</v>
       </c>
       <c r="D18">
         <v>3948.6</v>
       </c>
       <c r="E18" s="3">
-        <f t="shared" si="5"/>
-        <v>3948.6</v>
-      </c>
-      <c r="F18" s="3">
         <f t="shared" si="6"/>
         <v>3948.6</v>
       </c>
+      <c r="F18" s="3">
+        <f t="shared" si="7"/>
+        <v>3948.6</v>
+      </c>
       <c r="G18" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3948.6</v>
       </c>
       <c r="H18" s="3">
-        <f t="shared" si="8"/>
-        <v>4314.94</v>
+        <f t="shared" si="9"/>
+        <v>4314.9399999999996</v>
       </c>
       <c r="I18" s="3">
-        <f t="shared" si="9"/>
-        <v>4314.94</v>
+        <f t="shared" si="10"/>
+        <v>4314.9399999999996</v>
       </c>
       <c r="J18">
         <v>4507.51</v>
@@ -3563,15 +2768,15 @@
       <c r="L18" s="5"/>
       <c r="M18" s="5">
         <f t="shared" si="2"/>
-        <v>0.0446286622757213</v>
+        <v>4.4628662275721265E-2</v>
       </c>
       <c r="N18">
         <f t="shared" si="3"/>
-        <v>2.49543990330397</v>
+        <v>2.4954399033039731</v>
       </c>
       <c r="O18" s="5">
         <f t="shared" si="4"/>
-        <v>0.0849003694141749</v>
+        <v>8.4900369414174892E-2</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -3588,23 +2793,23 @@
         <v>25897.1</v>
       </c>
       <c r="E19" s="3">
-        <f t="shared" si="5"/>
-        <v>25897.1</v>
-      </c>
-      <c r="F19" s="4">
         <f t="shared" si="6"/>
         <v>25897.1</v>
       </c>
+      <c r="F19" s="4">
+        <f t="shared" si="7"/>
+        <v>25897.1</v>
+      </c>
       <c r="G19" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>25897.1</v>
       </c>
       <c r="H19" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>27954.9</v>
       </c>
       <c r="I19" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>27954.9</v>
       </c>
       <c r="J19">
@@ -3616,15 +2821,15 @@
       <c r="L19" s="5"/>
       <c r="M19" s="5">
         <f t="shared" si="2"/>
-        <v>0.0106743361628909</v>
+        <v>1.0674336162890929E-2</v>
       </c>
       <c r="N19">
         <f t="shared" si="3"/>
-        <v>6.38385476136104</v>
+        <v>6.3838547613610412</v>
       </c>
       <c r="O19" s="5">
         <f t="shared" si="4"/>
-        <v>0.0736114241152714</v>
+        <v>7.361142411527144E-2</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -3641,43 +2846,43 @@
         <v>2794.8</v>
       </c>
       <c r="E20" s="3">
-        <f t="shared" si="5"/>
-        <v>2794.8</v>
-      </c>
-      <c r="F20" s="4">
         <f t="shared" si="6"/>
         <v>2794.8</v>
       </c>
+      <c r="F20" s="4">
+        <f t="shared" si="7"/>
+        <v>2794.8</v>
+      </c>
       <c r="G20" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2794.8</v>
       </c>
       <c r="H20" s="3">
-        <f t="shared" si="8"/>
-        <v>4144.68</v>
-      </c>
-      <c r="I20" s="3">
         <f t="shared" si="9"/>
         <v>4144.68</v>
       </c>
+      <c r="I20" s="3">
+        <f t="shared" si="10"/>
+        <v>4144.68</v>
+      </c>
       <c r="J20">
         <v>4448.7</v>
       </c>
       <c r="K20">
-        <v>560.485</v>
+        <v>560.48500000000001</v>
       </c>
       <c r="L20" s="5"/>
       <c r="M20" s="5">
         <f t="shared" si="2"/>
-        <v>0.0733518631112655</v>
+        <v>7.3351863111265514E-2</v>
       </c>
       <c r="N20">
         <f t="shared" si="3"/>
-        <v>39.4930774581455</v>
+        <v>39.493077458145542</v>
       </c>
       <c r="O20" s="5">
         <f t="shared" si="4"/>
-        <v>0.325689799936304</v>
+        <v>0.32568979993630387</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -3694,23 +2899,23 @@
         <v>3718.41</v>
       </c>
       <c r="E21" s="3">
-        <f t="shared" si="5"/>
-        <v>3718.41</v>
-      </c>
-      <c r="F21" s="4">
         <f t="shared" si="6"/>
         <v>3718.41</v>
       </c>
+      <c r="F21" s="4">
+        <f t="shared" si="7"/>
+        <v>3718.41</v>
+      </c>
       <c r="G21" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3718.41</v>
       </c>
       <c r="H21" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3810.52</v>
       </c>
       <c r="I21" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3810.52</v>
       </c>
       <c r="J21">
@@ -3722,7 +2927,7 @@
       <c r="L21" s="5"/>
       <c r="M21" s="5">
         <f t="shared" si="2"/>
-        <v>0.0272115091903466</v>
+        <v>2.721150919034665E-2</v>
       </c>
       <c r="N21">
         <f t="shared" si="3"/>
@@ -3730,7 +2935,7 @@
       </c>
       <c r="O21" s="5">
         <f t="shared" si="4"/>
-        <v>0.0241725538771611</v>
+        <v>2.4172553877161107E-2</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -3747,27 +2952,27 @@
         <v>28709.3</v>
       </c>
       <c r="E22" s="3">
-        <f t="shared" si="5"/>
-        <v>28709.3</v>
-      </c>
-      <c r="F22" s="4">
         <f t="shared" si="6"/>
         <v>28709.3</v>
       </c>
+      <c r="F22" s="4">
+        <f t="shared" si="7"/>
+        <v>28709.3</v>
+      </c>
       <c r="G22" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>28709.3</v>
       </c>
       <c r="H22" s="3">
-        <f t="shared" si="8"/>
-        <v>32398.7</v>
-      </c>
-      <c r="I22" s="3">
         <f t="shared" si="9"/>
         <v>32398.7</v>
       </c>
+      <c r="I22" s="3">
+        <f t="shared" si="10"/>
+        <v>32398.7</v>
+      </c>
       <c r="J22">
-        <v>32867.6</v>
+        <v>32867.599999999999</v>
       </c>
       <c r="K22">
         <v>6555.1</v>
@@ -3775,11 +2980,11 @@
       <c r="L22" s="5"/>
       <c r="M22" s="5">
         <f t="shared" si="2"/>
-        <v>0.0144728029211048</v>
+        <v>1.4472802921104755E-2</v>
       </c>
       <c r="N22">
         <f t="shared" si="3"/>
-        <v>12.2662875575479</v>
+        <v>12.266287557547855</v>
       </c>
       <c r="O22" s="5">
         <f t="shared" si="4"/>
@@ -3791,33 +2996,33 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>262.307</v>
+        <v>262.30700000000002</v>
       </c>
       <c r="C23">
-        <v>9272.46</v>
+        <v>9272.4599999999991</v>
       </c>
       <c r="D23">
         <v>7160.71</v>
       </c>
       <c r="E23" s="3">
-        <f t="shared" si="5"/>
-        <v>7160.71</v>
-      </c>
-      <c r="F23" s="4">
         <f t="shared" si="6"/>
         <v>7160.71</v>
       </c>
+      <c r="F23" s="4">
+        <f t="shared" si="7"/>
+        <v>7160.71</v>
+      </c>
       <c r="G23" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7160.71</v>
       </c>
       <c r="H23" s="3">
-        <f t="shared" si="8"/>
-        <v>9272.46</v>
+        <f t="shared" si="9"/>
+        <v>9272.4599999999991</v>
       </c>
       <c r="I23" s="3">
-        <f t="shared" si="9"/>
-        <v>9272.46</v>
+        <f t="shared" si="10"/>
+        <v>9272.4599999999991</v>
       </c>
       <c r="J23">
         <v>10240.9</v>
@@ -3828,34 +3033,34 @@
       <c r="L23" s="5"/>
       <c r="M23" s="5">
         <f t="shared" si="2"/>
-        <v>0.104442618248016</v>
+        <v>0.10444261824801626</v>
       </c>
       <c r="N23">
         <f t="shared" si="3"/>
-        <v>35.3496475503894</v>
+        <v>35.34964755038942</v>
       </c>
       <c r="O23" s="5">
         <f t="shared" si="4"/>
-        <v>0.227744309492842</v>
-      </c>
-    </row>
-    <row r="24" spans="13:15">
+        <v>0.22774430949284219</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="M24" s="5"/>
       <c r="O24" s="5"/>
     </row>
-    <row r="28" spans="13:13">
+    <row r="28" spans="1:15">
       <c r="M28" s="5"/>
     </row>
-    <row r="29" spans="13:13">
+    <row r="29" spans="1:15">
       <c r="M29" s="5"/>
     </row>
-    <row r="30" spans="13:13">
+    <row r="30" spans="1:15">
       <c r="M30" s="5"/>
     </row>
-    <row r="31" spans="13:13">
+    <row r="31" spans="1:15">
       <c r="M31" s="5"/>
     </row>
-    <row r="32" spans="13:13">
+    <row r="32" spans="1:15">
       <c r="M32" s="5"/>
     </row>
     <row r="33" spans="13:13">
@@ -3874,25 +3079,23 @@
       <c r="M37" s="5"/>
     </row>
   </sheetData>
-  <sortState ref="A2:K23">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K23">
     <sortCondition ref="A2:A23"/>
   </sortState>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.4" outlineLevelCol="2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -4147,7 +3350,7 @@
         <v>2468</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="1:3">
       <c r="B24">
         <v>1736708</v>
       </c>
@@ -4156,29 +3359,28 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:C23">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C23">
     <sortCondition ref="A2:A23"/>
   </sortState>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.4" outlineLevelCol="3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="13.6607142857143" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.2" spans="1:4">
+    <row r="1" spans="1:4" ht="16">
       <c r="A1" s="1" t="s">
         <v>23</v>
       </c>
@@ -4189,7 +3391,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" ht="13.2" spans="1:4">
+    <row r="2" spans="1:4" ht="16">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -4200,7 +3402,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="3" ht="13.2" spans="1:4">
+    <row r="3" spans="1:4" ht="16">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -4211,7 +3413,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" ht="13.2" spans="1:4">
+    <row r="4" spans="1:4" ht="16">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -4222,7 +3424,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" ht="13.2" spans="1:4">
+    <row r="5" spans="1:4" ht="16">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -4233,7 +3435,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" ht="13.2" spans="1:4">
+    <row r="6" spans="1:4" ht="16">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -4244,7 +3446,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" ht="13.2" spans="1:4">
+    <row r="7" spans="1:4" ht="16">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -4256,7 +3458,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="8" ht="13.2" spans="1:4">
+    <row r="8" spans="1:4" ht="16">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -4267,7 +3469,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" ht="13.2" spans="1:4">
+    <row r="9" spans="1:4" ht="16">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -4279,7 +3481,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" ht="13.2" spans="1:4">
+    <row r="10" spans="1:4" ht="16">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -4291,7 +3493,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="11" ht="13.2" spans="1:4">
+    <row r="11" spans="1:4" ht="16">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -4303,7 +3505,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" ht="13.2" spans="1:4">
+    <row r="12" spans="1:4" ht="16">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -4315,7 +3517,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" ht="13.2" spans="1:4">
+    <row r="13" spans="1:4" ht="16">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -4326,7 +3528,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="14" ht="13.2" spans="1:4">
+    <row r="14" spans="1:4" ht="16">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -4338,7 +3540,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="15" ht="13.2" spans="1:4">
+    <row r="15" spans="1:4" ht="16">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -4350,7 +3552,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" ht="13.2" spans="1:4">
+    <row r="16" spans="1:4" ht="16">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -4362,7 +3564,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" ht="13.2" spans="1:4">
+    <row r="17" spans="1:4" ht="16">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -4374,7 +3576,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" ht="13.2" spans="1:4">
+    <row r="18" spans="1:4" ht="16">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -4385,7 +3587,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" ht="13.2" spans="1:4">
+    <row r="19" spans="1:4" ht="16">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -4396,7 +3598,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" ht="13.2" spans="1:4">
+    <row r="20" spans="1:4" ht="16">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -4407,7 +3609,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" ht="13.2" spans="1:4">
+    <row r="21" spans="1:4" ht="16">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -4418,7 +3620,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" ht="13.2" spans="1:4">
+    <row r="22" spans="1:4" ht="16">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -4430,7 +3632,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="23" ht="13.2" spans="1:4">
+    <row r="23" spans="1:4" ht="16">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -4441,7 +3643,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="2:4">
+    <row r="24" spans="1:4">
       <c r="B24">
         <f>SUM(B2:B23)</f>
         <v>20004</v>
@@ -4452,21 +3654,20 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView zoomScale="166" zoomScaleNormal="166" workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.4" outlineLevelRow="4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="58" customWidth="1"/>
   </cols>
@@ -4497,34 +3698,33 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="164" zoomScaleNormal="164" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.4" outlineLevelCol="3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>10</v>
+      <c r="B1" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4538,7 +3738,7 @@
         <v>751205</v>
       </c>
       <c r="D2">
-        <v>181411.034</v>
+        <v>181411.03400000001</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4546,13 +3746,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>624.568</v>
+        <v>624.56799999999998</v>
       </c>
       <c r="C3">
         <v>1953.06</v>
       </c>
       <c r="D3">
-        <v>768.167</v>
+        <v>768.16700000000003</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4574,7 +3774,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>772.001</v>
+        <v>772.00099999999998</v>
       </c>
       <c r="C5">
         <v>2912.35</v>
@@ -4588,7 +3788,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2488.05</v>
+        <v>2488.0500000000002</v>
       </c>
       <c r="C6">
         <v>5729.27</v>
@@ -4636,7 +3836,7 @@
         <v>7405.8</v>
       </c>
       <c r="D9">
-        <v>4536.77</v>
+        <v>4536.7700000000004</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4678,7 +3878,7 @@
         <v>1874.45</v>
       </c>
       <c r="D12">
-        <v>523.433</v>
+        <v>523.43299999999999</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4686,7 +3886,7 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>2343.7</v>
+        <v>2343.6999999999998</v>
       </c>
       <c r="C13">
         <v>67793.8</v>
@@ -4714,7 +3914,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>525.232</v>
+        <v>525.23199999999997</v>
       </c>
       <c r="C15">
         <v>3126.94</v>
@@ -4731,10 +3931,10 @@
         <v>1188.69</v>
       </c>
       <c r="C16">
-        <v>10169.3</v>
+        <v>10169.299999999999</v>
       </c>
       <c r="D16">
-        <v>2293.07</v>
+        <v>2293.0700000000002</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4742,7 +3942,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>788.169</v>
+        <v>788.16899999999998</v>
       </c>
       <c r="C17">
         <v>25169.5</v>
@@ -4759,7 +3959,7 @@
         <v>1729.13</v>
       </c>
       <c r="C18">
-        <v>4314.94</v>
+        <v>4314.9399999999996</v>
       </c>
       <c r="D18">
         <v>3636.1</v>
@@ -4790,7 +3990,7 @@
         <v>4144.68</v>
       </c>
       <c r="D20">
-        <v>560.485</v>
+        <v>560.48500000000001</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -4826,19 +4026,18 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>262.307</v>
+        <v>262.30700000000002</v>
       </c>
       <c r="C23">
-        <v>9272.46</v>
+        <v>9272.4599999999991</v>
       </c>
       <c r="D23">
         <v>2043.12</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
